--- a/files/disease.xlsx
+++ b/files/disease.xlsx
@@ -139,7 +139,7 @@
     <t>Heartattack</t>
   </si>
   <si>
-    <t>Cardialogist</t>
+    <t>Cardiology</t>
   </si>
   <si>
     <t>Varicoseveins</t>
